--- a/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
+++ b/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
@@ -15,7 +15,7 @@
     <sheet name="EXP8_30a_125a_574_125CT" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3000,11 +3000,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257695712"/>
-        <c:axId val="257696272"/>
+        <c:axId val="351140352"/>
+        <c:axId val="351140912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257695712"/>
+        <c:axId val="351140352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257696272"/>
+        <c:crossAx val="351140912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3054,7 +3054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257696272"/>
+        <c:axId val="351140912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257695712"/>
+        <c:crossAx val="351140352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10473,7 +10473,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
+++ b/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
@@ -3000,11 +3000,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351140352"/>
-        <c:axId val="351140912"/>
+        <c:axId val="201686128"/>
+        <c:axId val="201384720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351140352"/>
+        <c:axId val="201686128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351140912"/>
+        <c:crossAx val="201384720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3054,7 +3054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351140912"/>
+        <c:axId val="201384720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351140352"/>
+        <c:crossAx val="201686128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10470,15 +10470,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H18" sqref="H18:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>741</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -10502,8 +10502,12 @@
       <c r="E2">
         <v>18.989999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f t="shared" ref="J2:L6" si="0">E2-E9</f>
+        <v>-1.5200000000000031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>737</v>
       </c>
@@ -10516,8 +10520,16 @@
       <c r="E3">
         <v>26.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="1">B3-B10</f>
+        <v>-13.16</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-3.3499999999999979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>737</v>
       </c>
@@ -10530,8 +10542,16 @@
       <c r="D4">
         <v>24.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>737</v>
       </c>
@@ -10555,8 +10575,20 @@
         <f>-((D7-E7)-(D14-E14))</f>
         <v>-2.8948333333333345</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-14.769999999999996</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-7.1300000000000008</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-1.2599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>737</v>
       </c>
@@ -10580,8 +10612,24 @@
         <f>-((D8-E8)-(D15-E15))</f>
         <v>0.61412011181629289</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.6099999999999994</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-7.7100000000000009</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-21.72</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-15.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>745</v>
       </c>
@@ -10590,19 +10638,19 @@
         <v>28.267500000000002</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:E7" si="2">AVERAGE(C2:C6)</f>
         <v>24.603333333333335</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.383999999999997</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>746</v>
       </c>
@@ -10611,19 +10659,19 @@
         <v>2.9992954033683685</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:E8" si="1">STDEV(C2:C6)/2</f>
+        <f t="shared" ref="C8:E8" si="3">STDEV(C2:C6)/2</f>
         <v>2.8798712355474079</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9506591222225187</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2624632820411423</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>738</v>
       </c>
@@ -10631,7 +10679,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>738</v>
       </c>
@@ -10645,7 +10693,7 @@
         <v>23.97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>738</v>
       </c>
@@ -10656,7 +10704,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>738</v>
       </c>
@@ -10670,7 +10718,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>738</v>
       </c>
@@ -10687,7 +10735,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>745</v>
       </c>
@@ -10696,38 +10744,38 @@
         <v>30.87</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:E14" si="2">AVERAGE(C9:C13)</f>
+        <f t="shared" ref="C14:E14" si="4">AVERAGE(C9:C13)</f>
         <v>30.875</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.852499999999999</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.633333333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <f>STDEV(B9:B13)/2</f>
         <v>1.4778531726798843</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:E15" si="3">STDEV(C9:C13)/2</f>
+        <f t="shared" ref="C15:E15" si="5">STDEV(C9:C13)/2</f>
         <v>3.4448040582883648</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9901201643484043</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6878042123507351</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -10741,7 +10789,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>739</v>
       </c>
@@ -10758,8 +10806,16 @@
         <f>-((B23-C23)-(B31-C31))</f>
         <v>0.48899999999999366</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>B18-B26</f>
+        <v>-0.93999999999999773</v>
+      </c>
+      <c r="H18">
+        <f>C18-C26</f>
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>739</v>
       </c>
@@ -10776,16 +10832,28 @@
         <f>-((B24-C24)-(B32-C32))</f>
         <v>-0.69128287649837106</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" ref="G19:H22" si="6">B19-B27</f>
+        <v>4.9400000000000013</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>739</v>
       </c>
       <c r="C20">
         <v>34.86</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>-2.9100000000000037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>739</v>
       </c>
@@ -10795,8 +10863,16 @@
       <c r="C21">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0.23000000000000398</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>-0.86999999999999744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>739</v>
       </c>
@@ -10806,8 +10882,16 @@
       <c r="C22">
         <v>30.94</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>-2.0400000000000027</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>-1.9400000000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <f>AVERAGE(B18:B22)</f>
@@ -10818,7 +10902,7 @@
         <v>32.137999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <f>STDEV(B18:B22)/2</f>
@@ -10829,7 +10913,7 @@
         <v>1.1718169652296386</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>747</v>
       </c>
@@ -10840,7 +10924,7 @@
         <v>22.24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>747</v>
       </c>
@@ -10851,7 +10935,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>747</v>
       </c>
@@ -10862,7 +10946,7 @@
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>747</v>
       </c>
@@ -10873,7 +10957,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>747</v>
       </c>
@@ -10884,7 +10968,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <f>AVERAGE(B26:B30)</f>
@@ -10895,7 +10979,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <f>STDEV(B26:B30)/2</f>

--- a/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
+++ b/Data/PCR/EXP8_30a_125a_574_125CT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EXP8_30a_125a_574_125CT" sheetId="1" r:id="rId1"/>
@@ -3000,11 +3000,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="201686128"/>
-        <c:axId val="201384720"/>
+        <c:axId val="237047360"/>
+        <c:axId val="237052400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201686128"/>
+        <c:axId val="237047360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201384720"/>
+        <c:crossAx val="237052400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3054,7 +3054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201384720"/>
+        <c:axId val="237052400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201686128"/>
+        <c:crossAx val="237047360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10473,7 +10473,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H22"/>
+      <selection activeCell="I2" sqref="I2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10849,7 +10849,7 @@
         <v>34.86</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f>C20-C28</f>
         <v>-2.9100000000000037</v>
       </c>
     </row>
